--- a/upload/app/Data.xlsx
+++ b/upload/app/Data.xlsx
@@ -38,7 +38,7 @@
         <table:table-column table:style-name="co1" table:number-columns-repeated="2" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>name</text:p>
+            <text:p>name_first</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>number</text:p>
@@ -87,9 +87,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2023-06-13T11:49:44.349143550</meta:creation-date>
-    <dc:date>2023-06-13T11:51:14.308290890</dc:date>
-    <meta:editing-duration>PT1M30S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
+    <dc:date>2023-06-13T15:06:21.097063078</dc:date>
+    <meta:editing-duration>PT36M54S</meta:editing-duration>
+    <meta:editing-cycles>5</meta:editing-cycles>
     <meta:generator>LibreOffice/7.3.7.2$Linux_X86_64 LibreOffice_project/30$Build-2</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="10" meta:object-count="0"/>
   </office:meta>
@@ -109,8 +109,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">4</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -124,7 +124,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1295</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">953</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -169,9 +169,9 @@
       <config:config-item config:name="IsSnapToRaster" config:type="boolean">false</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string"/>
+      <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">oAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwQAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1000</config:config-item>
@@ -183,6 +183,7 @@
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowPageBreaks" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="UpdateFromTemplate" config:type="boolean">true</config:config-item>
       <config:config-item-map-named config:name="ScriptConfiguration">
         <config:config-item-map-entry config:name="Sheet1">

--- a/upload/app/Data.xlsx
+++ b/upload/app/Data.xlsx
@@ -16,7 +16,12 @@
 <office:document-content xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:formx="urn:openoffice:names:experimental:ooxml-odf-interop:xmlns:form:1.0" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:xforms="http://www.w3.org/2002/xforms" office:version="1.3">
   <office:scripts/>
   <office:font-face-decls>
+    <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss"/>
+    <style:font-face style:name="Arial1" svg:font-family="Arial"/>
+    <style:font-face style:name="DejaVu Sans" svg:font-family="'DejaVu Sans'" style:font-family-generic="system" style:font-pitch="variable"/>
+    <style:font-face style:name="Liberation Mono" svg:font-family="'Liberation Mono', 'DejaVu Sans Mono'" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="Liberation Sans" svg:font-family="'Liberation Sans'" style:font-family-generic="swiss" style:font-pitch="variable"/>
+    <style:font-face style:name="Liberation Serif" svg:font-family="'Liberation Serif'" style:font-family-generic="roman" style:font-pitch="variable"/>
     <style:font-face style:name="Lohit Devanagari" svg:font-family="'Lohit Devanagari'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Noto Sans CJK SC" svg:font-family="'Noto Sans CJK SC'" style:font-family-generic="system" style:font-pitch="variable"/>
   </office:font-face-decls>
@@ -24,57 +29,1175 @@
     <style:style style:name="co1" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.258cm"/>
     </style:style>
+    <style:style style:name="co2" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="2.967cm"/>
+    </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.452cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
+    <style:style style:name="ro2" style:family="table-row">
+      <style:table-row-properties style:row-height="1.842cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro3" style:family="table-row">
+      <style:table-row-properties style:row-height="0.947cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro4" style:family="table-row">
+      <style:table-row-properties style:row-height="1.395cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro5" style:family="table-row">
+      <style:table-row-properties style:row-height="0.499cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
+    </style:style>
+    <number:number-style style:name="N1">
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1"/>
+    </number:number-style>
+    <number:boolean-style style:name="N99">
+      <number:boolean/>
+    </number:boolean-style>
+    <number:text-style style:name="N100">
+      <number:text-content/>
+    </number:text-style>
+    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N1">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="true" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N121">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="true" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N99"/>
+    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N100">
+      <style:table-cell-properties fo:wrap-option="wrap"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Mono" fo:font-size="10pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Liberation Mono" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Liberation Mono" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="T1" style:family="text">
+      <style:text-properties style:use-window-font-color="true" style:font-name="Arial" fo:font-size="11pt" fo:font-weight="normal" style:text-underline-style="none" style:text-underline-color="font-color" style:text-line-through-type="none" fo:font-style="normal" style:text-outline="false" fo:text-shadow="none" style:text-position="0% 100%" style:font-name-complex="Arial" style:font-size-asian="11pt" style:font-size-complex="11pt" style:font-weight-asian="normal" style:font-weight-complex="normal" style:font-style-asian="normal" style:font-style-complex="normal"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
     <office:spreadsheet>
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="Sheet1" table:style-name="ta1">
+        <table:table-column table:style-name="co1" table:default-cell-style-name="ce3"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="ce4"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="3" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="ce1"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="2" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>name_first</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>number</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>himanish</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
-            <text:p>1</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>jay</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>priyank</text:p>
+          <table:table-cell table:style-name="Default" office:value-type="string" calcext:value-type="string">
+            <text:p>state_name</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>zone</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default" office:value-type="string" calcext:value-type="string">
+            <text:p>state_code</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>tin_no</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gstn</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>nav_code</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>state_india_office_addr</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default" office:value-type="string" calcext:value-type="string">
+            <text:p>active</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>created_at</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>updated_at</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Andaman and Nicobar Islands</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="35" calcext:value-type="float">
+            <text:p>35</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="420" calcext:value-type="float">
+            <text:p>420</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
+            <text:p>50</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="34" calcext:value-type="float">
+            <text:p>34</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Andhra Pradesh</text:span>
+            </text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>yash</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="28" calcext:value-type="float">
+            <text:p>28</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="421" calcext:value-type="float">
+            <text:p>421</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="51" calcext:value-type="float">
+            <text:p>51</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="35" calcext:value-type="float">
+            <text:p>35</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Andhra Pradesh (New)</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="37" calcext:value-type="float">
+            <text:p>37</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="422" calcext:value-type="float">
+            <text:p>422</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="52" calcext:value-type="float">
+            <text:p>52</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="36" calcext:value-type="float">
+            <text:p>36</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Arunachal Pradesh</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="12" calcext:value-type="float">
+            <text:p>12</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="423" calcext:value-type="float">
+            <text:p>423</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="53" calcext:value-type="float">
+            <text:p>53</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="37" calcext:value-type="float">
+            <text:p>37</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Assam</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="18" calcext:value-type="float">
+            <text:p>18</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="424" calcext:value-type="float">
+            <text:p>424</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="54" calcext:value-type="float">
+            <text:p>54</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="38" calcext:value-type="float">
+            <text:p>38</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Bihar</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
+            <text:p>10</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="425" calcext:value-type="float">
+            <text:p>425</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="55" calcext:value-type="float">
+            <text:p>55</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="39" calcext:value-type="float">
+            <text:p>39</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Chandigarh</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>04</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="426" calcext:value-type="float">
+            <text:p>426</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="56" calcext:value-type="float">
+            <text:p>56</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="40" calcext:value-type="float">
+            <text:p>40</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Chattisgarh</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="22" calcext:value-type="float">
+            <text:p>22</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="427" calcext:value-type="float">
+            <text:p>427</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="57" calcext:value-type="float">
+            <text:p>57</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="41" calcext:value-type="float">
+            <text:p>41</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Dadra and Nagar Haveli</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="26" calcext:value-type="float">
+            <text:p>26</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="428" calcext:value-type="float">
+            <text:p>428</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="58" calcext:value-type="float">
+            <text:p>58</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="42" calcext:value-type="float">
+            <text:p>42</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Daman and Diu</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="25" calcext:value-type="float">
+            <text:p>25</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="429" calcext:value-type="float">
+            <text:p>429</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="59" calcext:value-type="float">
+            <text:p>59</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Delhi</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="7" calcext:value-type="float">
+            <text:p>07</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="430" calcext:value-type="float">
+            <text:p>430</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
+            <text:p>44</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Goa</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="431" calcext:value-type="float">
+            <text:p>431</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="61" calcext:value-type="float">
+            <text:p>61</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Gujarat</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="24" calcext:value-type="float">
+            <text:p>24</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="432" calcext:value-type="float">
+            <text:p>432</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="62" calcext:value-type="float">
+            <text:p>62</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="46" calcext:value-type="float">
+            <text:p>46</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Haryana</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>06</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="433" calcext:value-type="float">
+            <text:p>433</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="63" calcext:value-type="float">
+            <text:p>63</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="47" calcext:value-type="float">
+            <text:p>47</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Himachal Pradesh</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>02</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="434" calcext:value-type="float">
+            <text:p>434</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="64" calcext:value-type="float">
+            <text:p>64</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="48" calcext:value-type="float">
+            <text:p>48</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Jammu and Kashmir</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>01</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="435" calcext:value-type="float">
+            <text:p>435</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="65" calcext:value-type="float">
+            <text:p>65</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
+            <text:p>49</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Jharkhand</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="20" calcext:value-type="float">
+            <text:p>20</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="436" calcext:value-type="float">
+            <text:p>436</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="66" calcext:value-type="float">
+            <text:p>66</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
+            <text:p>50</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Karnataka</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="29" calcext:value-type="float">
+            <text:p>29</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="437" calcext:value-type="float">
+            <text:p>437</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="67" calcext:value-type="float">
+            <text:p>67</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="51" calcext:value-type="float">
+            <text:p>51</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Kerala</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="32" calcext:value-type="float">
+            <text:p>32</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="438" calcext:value-type="float">
+            <text:p>438</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="68" calcext:value-type="float">
+            <text:p>68</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="52" calcext:value-type="float">
+            <text:p>52</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Lakshadweep Islands</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="31" calcext:value-type="float">
+            <text:p>31</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="439" calcext:value-type="float">
+            <text:p>439</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="69" calcext:value-type="float">
+            <text:p>69</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="53" calcext:value-type="float">
+            <text:p>53</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Madhya Pradesh</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="23" calcext:value-type="float">
+            <text:p>23</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="440" calcext:value-type="float">
+            <text:p>440</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="70" calcext:value-type="float">
+            <text:p>70</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="54" calcext:value-type="float">
+            <text:p>54</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Maharashtra</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="27" calcext:value-type="float">
+            <text:p>27</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="441" calcext:value-type="float">
+            <text:p>441</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="71" calcext:value-type="float">
+            <text:p>71</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="55" calcext:value-type="float">
+            <text:p>55</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Manipur</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="14" calcext:value-type="float">
+            <text:p>14</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="442" calcext:value-type="float">
+            <text:p>442</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="72" calcext:value-type="float">
+            <text:p>72</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="56" calcext:value-type="float">
+            <text:p>56</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Meghalaya</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="17" calcext:value-type="float">
+            <text:p>17</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="443" calcext:value-type="float">
+            <text:p>443</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="73" calcext:value-type="float">
+            <text:p>73</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="57" calcext:value-type="float">
+            <text:p>57</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Mizoram</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="15" calcext:value-type="float">
+            <text:p>15</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="444" calcext:value-type="float">
+            <text:p>444</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="74" calcext:value-type="float">
+            <text:p>74</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="58" calcext:value-type="float">
+            <text:p>58</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Nagaland</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="13" calcext:value-type="float">
+            <text:p>13</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="445" calcext:value-type="float">
+            <text:p>445</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="75" calcext:value-type="float">
+            <text:p>75</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="59" calcext:value-type="float">
+            <text:p>59</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Odisha</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="21" calcext:value-type="float">
+            <text:p>21</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="446" calcext:value-type="float">
+            <text:p>446</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="76" calcext:value-type="float">
+            <text:p>76</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Pondicherry</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="34" calcext:value-type="float">
+            <text:p>34</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="447" calcext:value-type="float">
+            <text:p>447</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="77" calcext:value-type="float">
+            <text:p>77</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="61" calcext:value-type="float">
+            <text:p>61</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Punjab</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="3" calcext:value-type="float">
+            <text:p>03</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="448" calcext:value-type="float">
+            <text:p>448</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="78" calcext:value-type="float">
+            <text:p>78</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="62" calcext:value-type="float">
+            <text:p>62</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Rajasthan</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>08</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="449" calcext:value-type="float">
+            <text:p>449</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="79" calcext:value-type="float">
+            <text:p>79</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="63" calcext:value-type="float">
+            <text:p>63</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Sikkim</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="11" calcext:value-type="float">
+            <text:p>11</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="450" calcext:value-type="float">
+            <text:p>450</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="80" calcext:value-type="float">
+            <text:p>80</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="64" calcext:value-type="float">
+            <text:p>64</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Tamil Nadu</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="33" calcext:value-type="float">
+            <text:p>33</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="451" calcext:value-type="float">
+            <text:p>451</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="81" calcext:value-type="float">
+            <text:p>81</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="65" calcext:value-type="float">
+            <text:p>65</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Telangana</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="36" calcext:value-type="float">
+            <text:p>36</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="452" calcext:value-type="float">
+            <text:p>452</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="82" calcext:value-type="float">
+            <text:p>82</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="66" calcext:value-type="float">
+            <text:p>66</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Tripura</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
+            <text:p>16</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="453" calcext:value-type="float">
+            <text:p>453</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="83" calcext:value-type="float">
+            <text:p>83</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="67" calcext:value-type="float">
+            <text:p>67</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Uttar Pradesh</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="9" calcext:value-type="float">
+            <text:p>09</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="454" calcext:value-type="float">
+            <text:p>454</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="84" calcext:value-type="float">
+            <text:p>84</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="68" calcext:value-type="float">
+            <text:p>68</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Uttarakhand</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="5" calcext:value-type="float">
+            <text:p>05</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="455" calcext:value-type="float">
+            <text:p>455</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="85" calcext:value-type="float">
+            <text:p>85</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="69" calcext:value-type="float">
+            <text:p>69</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">West Bengal</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="19" calcext:value-type="float">
+            <text:p>19</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="456" calcext:value-type="float">
+            <text:p>456</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="86" calcext:value-type="float">
+            <text:p>86</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="70" calcext:value-type="float">
+            <text:p>70</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>gandhi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="boolean" office:boolean-value="true" calcext:value-type="boolean">
+            <text:p>TRUE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -87,11 +1210,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2023-06-13T11:49:44.349143550</meta:creation-date>
-    <dc:date>2023-06-13T15:06:21.097063078</dc:date>
-    <meta:editing-duration>PT36M54S</meta:editing-duration>
-    <meta:editing-cycles>5</meta:editing-cycles>
+    <dc:date>2023-06-13T19:23:44.216897888</dc:date>
+    <meta:editing-duration>PT4H33M52S</meta:editing-duration>
+    <meta:editing-cycles>32</meta:editing-cycles>
     <meta:generator>LibreOffice/7.3.7.2$Linux_X86_64 LibreOffice_project/30$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="10" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="306" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -102,15 +1225,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">4516</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">2258</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">23287</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">27432</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">13</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -124,7 +1247,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">953</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1295</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -159,6 +1282,15 @@
       <config:config-item config:name="EmbedFonts" config:type="boolean">false</config:config-item>
       <config:config-item config:name="EmbedLatinScriptFonts" config:type="boolean">true</config:config-item>
       <config:config-item config:name="EmbedOnlyUsedFonts" config:type="boolean">false</config:config-item>
+      <config:config-item-map-indexed config:name="ForbiddenCharacters">
+        <config:config-item-map-entry>
+          <config:config-item config:name="Language" config:type="string">en</config:config-item>
+          <config:config-item config:name="Country" config:type="string">IN</config:config-item>
+          <config:config-item config:name="Variant" config:type="string"/>
+          <config:config-item config:name="BeginLine" config:type="string"/>
+          <config:config-item config:name="EndLine" config:type="string"/>
+        </config:config-item-map-entry>
+      </config:config-item-map-indexed>
       <config:config-item config:name="GridColor" config:type="int">12632256</config:config-item>
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
@@ -171,7 +1303,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">oAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwQAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">oAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwQAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6QTQARHVwbGV4Ok5vbmUAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1000</config:config-item>
@@ -198,7 +1330,12 @@
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-styles xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" xmlns:rpt="http://openoffice.org/2005/report" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:xhtml="http://www.w3.org/1999/xhtml" office:version="1.3">
   <office:font-face-decls>
+    <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss"/>
+    <style:font-face style:name="Arial1" svg:font-family="Arial"/>
+    <style:font-face style:name="DejaVu Sans" svg:font-family="'DejaVu Sans'" style:font-family-generic="system" style:font-pitch="variable"/>
+    <style:font-face style:name="Liberation Mono" svg:font-family="'Liberation Mono', 'DejaVu Sans Mono'" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="Liberation Sans" svg:font-family="'Liberation Sans'" style:font-family-generic="swiss" style:font-pitch="variable"/>
+    <style:font-face style:name="Liberation Serif" svg:font-family="'Liberation Serif'" style:font-family-generic="roman" style:font-pitch="variable"/>
     <style:font-face style:name="Lohit Devanagari" svg:font-family="'Lohit Devanagari'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Noto Sans CJK SC" svg:font-family="'Noto Sans CJK SC'" style:font-family-generic="system" style:font-pitch="variable"/>
   </office:font-face-decls>
@@ -209,6 +1346,115 @@
     </style:default-style>
     <number:number-style style:name="N0">
       <number:number number:min-integer-digits="1"/>
+    </number:number-style>
+    <number:number-style style:name="N121">
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="2"/>
+    </number:number-style>
+    <number:number-style style:name="N120">
+      <number:scientific-number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:min-exponent-digits="1" number:exponent-interval="3" number:forced-exponent-sign="true"/>
+    </number:number-style>
+    <number:time-style style:name="N119">
+      <number:minutes number:style="long"/>
+      <number:text>:</number:text>
+      <number:seconds number:style="long" number:decimal-places="1"/>
+    </number:time-style>
+    <number:time-style style:name="N118" number:truncate-on-overflow="false">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+      <number:text>:</number:text>
+      <number:seconds number:style="long"/>
+    </number:time-style>
+    <number:time-style style:name="N117">
+      <number:minutes number:style="long"/>
+      <number:text>:</number:text>
+      <number:seconds number:style="long"/>
+    </number:time-style>
+    <number:number-style style:name="N116P0" style:volatile="true">
+      <number:text> </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N116P1" style:volatile="true">
+      <number:text>-</number:text>
+      <number:fill-character> </number:fill-character>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N116P2" style:volatile="true">
+      <number:text> </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="0"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:text-style style:name="N116">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N116P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N116P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N116P2"/>
+    </number:text-style>
+    <number:number-style style:name="N115P0" style:volatile="true">
+      <number:text> </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N115P1" style:volatile="true">
+      <number:text>-</number:text>
+      <number:fill-character> </number:fill-character>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N115P2" style:volatile="true">
+      <number:text> </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:text>- </number:text>
+    </number:number-style>
+    <number:text-style style:name="N115">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N115P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N115P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N115P2"/>
+    </number:text-style>
+    <number:number-style style:name="N114P0" style:volatile="true">
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N114">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N114P0"/>
+    </number:number-style>
+    <number:number-style style:name="N113P0" style:volatile="true">
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N113">
+      <number:text>-</number:text>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N113P0"/>
+    </number:number-style>
+    <number:number-style style:name="N112P0" style:volatile="true">
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N112">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N112P0"/>
+    </number:number-style>
+    <number:number-style style:name="N111P0" style:volatile="true">
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N111">
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N111P0"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell"/>
     <style:style style:name="Heading" style:family="table-cell" style:parent-style-name="Default">
